--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_98.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_98.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[('0:00:37.760000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.600000', '0:00:32.340000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(105.0, 108.24)]</t>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.820000', '0:00:38.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4107142857142857</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1057579318448884</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[('0:00:03.820000', '0:00:06.460000'), ('0:00:01.360000', '0:00:04.740000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:13.500000', '0:00:21.900000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.700000', '0:00:12.060000'), ('0:00:00.340000', '0:00:04.840000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
